--- a/Documentation/Appendix P - SUS Results.xlsx
+++ b/Documentation/Appendix P - SUS Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>ID Items</t>
   </si>
   <si>
-    <t>This spreadsheet contains the results of the SUS questionnaire which were provided to the participants during the evaluation of the Graphical Enigma Simulator</t>
-  </si>
-  <si>
     <t>Graphical Enigma Simulator</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Majed Monem</t>
+  </si>
+  <si>
+    <t>This spreadsheet contains the results of the SUS questionnaire which were provided to the participants during the evaluation of the Graphical Enigma simulator</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-28"/>
-        <c:axId val="-351599888"/>
-        <c:axId val="-351601520"/>
+        <c:axId val="-1633299280"/>
+        <c:axId val="-1633287856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -658,7 +658,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-351599888"/>
+        <c:axId val="-1633299280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-351601520"/>
+        <c:crossAx val="-1633287856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-351601520"/>
+        <c:axId val="-1633287856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-351599888"/>
+        <c:crossAx val="-1633299280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2196,19 +2196,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3450,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
